--- a/tests/integration_test_files/group_activities_1.xlsx
+++ b/tests/integration_test_files/group_activities_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D12D89-44C7-5045-9D3C-6B1D53E68DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B01384-5F5E-F94B-9D7A-0470C56FFA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55320" yWindow="2340" windowWidth="36000" windowHeight="21260" firstSheet="6" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="55320" yWindow="2340" windowWidth="36000" windowHeight="21260" firstSheet="6" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="dictionaries" sheetId="23" r:id="rId9"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId10"/>
     <sheet name="studyDesignTiming" sheetId="25" r:id="rId11"/>
-    <sheet name="studyDesignConditions" sheetId="31" r:id="rId12"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId13"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId12"/>
+    <sheet name="studyDesignConditions" sheetId="31" r:id="rId13"/>
     <sheet name="studyDesignIndications" sheetId="6" r:id="rId14"/>
     <sheet name="studyDesignInterventions" sheetId="27" r:id="rId15"/>
     <sheet name="studyDesignPopulations" sheetId="7" r:id="rId16"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="774">
   <si>
     <t>Screening</t>
   </si>
@@ -1835,9 +1835,6 @@
     <t>Optional safety activity</t>
   </si>
   <si>
-    <t>Optional activity</t>
-  </si>
-  <si>
     <t>Procedures</t>
   </si>
   <si>
@@ -1847,9 +1844,6 @@
     <t>Perform the optional weight data collection</t>
   </si>
   <si>
-    <t>Weight optional</t>
-  </si>
-  <si>
     <t>BC:Weight</t>
   </si>
   <si>
@@ -2376,6 +2370,18 @@
   </si>
   <si>
     <t>Something Else</t>
+  </si>
+  <si>
+    <t>Optional Safety</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Heamotology</t>
+  </si>
+  <si>
+    <t>Basic Demographics</t>
   </si>
 </sst>
 </file>
@@ -3136,13 +3142,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3389,7 +3395,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>38</v>
@@ -3407,7 +3413,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>531</v>
@@ -3447,10 +3453,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -3465,7 +3471,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>588</v>
+        <v>770</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>589</v>
@@ -3476,12 +3482,12 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -3493,13 +3499,21 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>770</v>
-      </c>
       <c r="B18" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="D18" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3693,7 +3707,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B7" t="s">
         <v>573</v>
@@ -3726,6 +3740,137 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C10" sqref="A10:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" t="s">
+        <v>773</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B9" t="s">
+        <v>767</v>
+      </c>
+      <c r="C9" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B66E51-0DD3-3746-8869-93EFDF6EEF7D}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -3756,27 +3901,27 @@
         <v>191</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>123</v>
@@ -3784,19 +3929,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>125</v>
@@ -3804,105 +3949,24 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="B3" t="s">
-        <v>593</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="B4" t="s">
-        <v>594</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>588</v>
-      </c>
-      <c r="B5" t="s">
-        <v>590</v>
-      </c>
-      <c r="C5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3934,7 +3998,7 @@
         <v>456</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>43</v>
@@ -3945,13 +4009,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>44</v>
@@ -3962,10 +4026,10 @@
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>127</v>
@@ -4025,49 +4089,49 @@
         <v>43</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="O1" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>658</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>660</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -4075,58 +4139,58 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D2" t="s">
         <v>663</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>751</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>676</v>
+      </c>
+      <c r="G2" t="s">
         <v>664</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>752</v>
+      </c>
+      <c r="I2" t="s">
         <v>665</v>
       </c>
-      <c r="E2" t="s">
-        <v>753</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>678</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>666</v>
       </c>
-      <c r="H2" t="s">
-        <v>754</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>667</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>668</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>674</v>
+      </c>
+      <c r="N2" t="s">
         <v>669</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>675</v>
+      </c>
+      <c r="P2" t="s">
         <v>670</v>
       </c>
-      <c r="M2" t="s">
-        <v>676</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2" t="s">
         <v>671</v>
       </c>
-      <c r="O2" t="s">
-        <v>677</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="S2" s="31" t="s">
         <v>672</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>127</v>
-      </c>
-      <c r="R2" t="s">
-        <v>673</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4134,58 +4198,58 @@
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J3" t="s">
+        <v>679</v>
+      </c>
+      <c r="K3" t="s">
+        <v>680</v>
+      </c>
+      <c r="L3" t="s">
         <v>681</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>674</v>
+      </c>
+      <c r="N3" t="s">
+        <v>669</v>
+      </c>
+      <c r="O3" t="s">
+        <v>675</v>
+      </c>
+      <c r="P3" t="s">
         <v>682</v>
       </c>
-      <c r="L3" t="s">
-        <v>683</v>
-      </c>
-      <c r="M3" t="s">
-        <v>676</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" t="s">
         <v>671</v>
       </c>
-      <c r="O3" t="s">
-        <v>677</v>
-      </c>
-      <c r="P3" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>127</v>
-      </c>
-      <c r="R3" t="s">
-        <v>673</v>
-      </c>
       <c r="S3" s="31" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -4215,7 +4279,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>385</v>
@@ -4227,24 +4291,24 @@
         <v>456</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>47</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B2" t="s">
         <v>499</v>
@@ -4264,13 +4328,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>127</v>
@@ -4278,13 +4342,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B4" t="s">
         <v>689</v>
       </c>
-      <c r="B4" t="s">
-        <v>691</v>
-      </c>
       <c r="G4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>127</v>
@@ -4336,7 +4400,7 @@
         <v>50</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>508</v>
@@ -4357,7 +4421,7 @@
         <v>52</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -4372,7 +4436,7 @@
         <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
@@ -4399,13 +4463,13 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>68</v>
@@ -4998,7 +5062,7 @@
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G2" s="9"/>
     </row>
@@ -5256,7 +5320,7 @@
         <v>139</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -5414,39 +5478,39 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>384</v>
@@ -5454,7 +5518,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -5884,34 +5948,34 @@
         <v>425</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>190</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="B2" s="10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>476</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>476</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5929,7 +5993,7 @@
         <v>127</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5946,7 +6010,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5963,7 +6027,7 @@
         <v>127</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5980,7 +6044,7 @@
         <v>127</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5997,7 +6061,7 @@
         <v>127</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6014,7 +6078,7 @@
         <v>127</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6031,7 +6095,7 @@
         <v>127</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6048,7 +6112,7 @@
         <v>127</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6065,7 +6129,7 @@
         <v>127</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6082,7 +6146,7 @@
         <v>127</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6099,7 +6163,7 @@
         <v>127</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6117,7 +6181,7 @@
         <v>127</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6135,7 +6199,7 @@
         <v>127</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6153,7 +6217,7 @@
         <v>127</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6171,7 +6235,7 @@
         <v>127</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6189,7 +6253,7 @@
         <v>127</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6207,7 +6271,7 @@
         <v>127</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6225,7 +6289,7 @@
         <v>127</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6243,7 +6307,7 @@
         <v>127</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6261,7 +6325,7 @@
         <v>127</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6279,7 +6343,7 @@
         <v>127</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6297,7 +6361,7 @@
         <v>127</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6315,7 +6379,7 @@
         <v>127</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6333,7 +6397,7 @@
         <v>127</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6351,7 +6415,7 @@
         <v>127</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6369,7 +6433,7 @@
         <v>127</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6387,7 +6451,7 @@
         <v>127</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6405,7 +6469,7 @@
         <v>127</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6423,7 +6487,7 @@
         <v>127</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6441,7 +6505,7 @@
         <v>127</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6459,7 +6523,7 @@
         <v>127</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6477,7 +6541,7 @@
         <v>127</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6495,7 +6559,7 @@
         <v>127</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6513,7 +6577,7 @@
         <v>127</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6531,7 +6595,7 @@
         <v>127</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6549,7 +6613,7 @@
         <v>127</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6567,7 +6631,7 @@
         <v>127</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6585,7 +6649,7 @@
         <v>127</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6603,7 +6667,7 @@
         <v>127</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6621,7 +6685,7 @@
         <v>127</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6639,7 +6703,7 @@
         <v>127</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6657,7 +6721,7 @@
         <v>127</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6675,7 +6739,7 @@
         <v>127</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6693,7 +6757,7 @@
         <v>127</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6711,7 +6775,7 @@
         <v>127</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6729,7 +6793,7 @@
         <v>127</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6747,7 +6811,7 @@
         <v>127</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6765,7 +6829,7 @@
         <v>127</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6783,7 +6847,7 @@
         <v>127</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -6801,7 +6865,7 @@
         <v>127</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6819,7 +6883,7 @@
         <v>127</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -6837,7 +6901,7 @@
         <v>127</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -6855,7 +6919,7 @@
         <v>127</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6873,7 +6937,7 @@
         <v>127</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6891,7 +6955,7 @@
         <v>127</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6909,7 +6973,7 @@
         <v>127</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6927,7 +6991,7 @@
         <v>127</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6945,7 +7009,7 @@
         <v>127</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6963,7 +7027,7 @@
         <v>127</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6981,7 +7045,7 @@
         <v>127</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6999,7 +7063,7 @@
         <v>127</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7017,7 +7081,7 @@
         <v>127</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7035,7 +7099,7 @@
         <v>127</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7053,7 +7117,7 @@
         <v>127</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7071,7 +7135,7 @@
         <v>127</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7089,7 +7153,7 @@
         <v>127</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7107,7 +7171,7 @@
         <v>127</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7125,7 +7189,7 @@
         <v>127</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7143,7 +7207,7 @@
         <v>127</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7161,7 +7225,7 @@
         <v>127</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7179,7 +7243,7 @@
         <v>127</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7197,7 +7261,7 @@
         <v>127</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7215,7 +7279,7 @@
         <v>127</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7233,7 +7297,7 @@
         <v>127</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7251,7 +7315,7 @@
         <v>127</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7269,7 +7333,7 @@
         <v>127</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7287,7 +7351,7 @@
         <v>127</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7305,7 +7369,7 @@
         <v>127</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7323,7 +7387,7 @@
         <v>127</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7341,7 +7405,7 @@
         <v>127</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7359,7 +7423,7 @@
         <v>127</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7377,7 +7441,7 @@
         <v>127</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7395,7 +7459,7 @@
         <v>127</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7413,7 +7477,7 @@
         <v>127</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7431,7 +7495,7 @@
         <v>127</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7449,7 +7513,7 @@
         <v>127</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7467,7 +7531,7 @@
         <v>127</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7485,7 +7549,7 @@
         <v>127</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7503,13 +7567,13 @@
         <v>127</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>127</v>
@@ -7521,13 +7585,13 @@
         <v>127</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>127</v>
@@ -7539,7 +7603,7 @@
         <v>127</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7557,7 +7621,7 @@
         <v>127</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7575,7 +7639,7 @@
         <v>127</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7593,7 +7657,7 @@
         <v>127</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7611,7 +7675,7 @@
         <v>127</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7629,7 +7693,7 @@
         <v>127</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7647,7 +7711,7 @@
         <v>127</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7665,7 +7729,7 @@
         <v>127</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7683,7 +7747,7 @@
         <v>127</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7701,7 +7765,7 @@
         <v>127</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7719,7 +7783,7 @@
         <v>127</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7737,7 +7801,7 @@
         <v>127</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7755,7 +7819,7 @@
         <v>127</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7773,7 +7837,7 @@
         <v>127</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7791,7 +7855,7 @@
         <v>127</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7809,7 +7873,7 @@
         <v>127</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7827,7 +7891,7 @@
         <v>127</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7845,7 +7909,7 @@
         <v>127</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7863,7 +7927,7 @@
         <v>127</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7881,7 +7945,7 @@
         <v>127</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7899,7 +7963,7 @@
         <v>127</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7917,7 +7981,7 @@
         <v>127</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7935,7 +7999,7 @@
         <v>127</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7953,7 +8017,7 @@
         <v>127</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7971,7 +8035,7 @@
         <v>127</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7989,7 +8053,7 @@
         <v>127</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8007,7 +8071,7 @@
         <v>127</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8025,7 +8089,7 @@
         <v>127</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8043,7 +8107,7 @@
         <v>127</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8061,7 +8125,7 @@
         <v>127</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8079,7 +8143,7 @@
         <v>127</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8097,7 +8161,7 @@
         <v>127</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8115,7 +8179,7 @@
         <v>127</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8133,7 +8197,7 @@
         <v>127</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8151,7 +8215,7 @@
         <v>127</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8169,7 +8233,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8187,7 +8251,7 @@
         <v>127</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8205,7 +8269,7 @@
         <v>127</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8223,7 +8287,7 @@
         <v>127</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8241,7 +8305,7 @@
         <v>127</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8259,7 +8323,7 @@
         <v>127</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -8348,94 +8412,94 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -8512,7 +8576,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -8532,58 +8596,58 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C4" t="s">
+        <v>636</v>
+      </c>
+      <c r="D4" t="s">
         <v>635</v>
       </c>
-      <c r="C4" t="s">
-        <v>638</v>
-      </c>
-      <c r="D4" t="s">
-        <v>637</v>
-      </c>
       <c r="E4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D6" t="s">
         <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -8696,10 +8760,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -8707,10 +8771,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>692</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>694</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -8718,10 +8782,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -8861,30 +8925,30 @@
         <v>41</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>489</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>702</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>703</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>110</v>
@@ -8896,36 +8960,36 @@
         <v>123456789</v>
       </c>
       <c r="F2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>710</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F3"/>
       <c r="G3" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>714</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>110</v>
@@ -8937,16 +9001,16 @@
         <v>234567891</v>
       </c>
       <c r="F4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -9189,7 +9253,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>494</v>
@@ -9210,7 +9274,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>494</v>
@@ -9218,63 +9282,63 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>502</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>505</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>751</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -9323,7 +9387,7 @@
         <v>493</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -9346,7 +9410,7 @@
         <v>499</v>
       </c>
       <c r="G2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -9360,18 +9424,18 @@
         <v>499</v>
       </c>
       <c r="G3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" t="s">
         <v>608</v>
-      </c>
-      <c r="B4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C4" t="s">
-        <v>610</v>
       </c>
       <c r="D4" t="s">
         <v>497</v>
@@ -9383,21 +9447,21 @@
         <v>499</v>
       </c>
       <c r="G4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B5" t="s">
         <v>743</v>
       </c>
-      <c r="B5" t="s">
-        <v>745</v>
-      </c>
       <c r="C5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E5" t="s">
         <v>542</v>
@@ -9411,7 +9475,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H6">
         <v>1234</v>

--- a/tests/integration_test_files/group_activities_1.xlsx
+++ b/tests/integration_test_files/group_activities_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B01384-5F5E-F94B-9D7A-0470C56FFA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B1E2E-D09B-3D48-8836-E3731E4EDEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55320" yWindow="2340" windowWidth="36000" windowHeight="21260" firstSheet="6" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="55320" yWindow="2340" windowWidth="36000" windowHeight="21260" firstSheet="10" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="777">
   <si>
     <t>Screening</t>
   </si>
@@ -2382,13 +2382,22 @@
   </si>
   <si>
     <t>Basic Demographics</t>
+  </si>
+  <si>
+    <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2414,14 +2423,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2515,9 +2516,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2585,18 +2586,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2610,15 +2608,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3217,7 +3215,7 @@
       <c r="H2" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>577</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -3246,7 +3244,7 @@
       <c r="G3" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>580</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -3319,7 +3317,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>579</v>
       </c>
       <c r="I6" s="2"/>
@@ -3743,7 +3741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
@@ -4150,7 +4148,7 @@
       <c r="E2" t="s">
         <v>751</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>676</v>
       </c>
       <c r="G2" t="s">
@@ -4189,7 +4187,7 @@
       <c r="R2" t="s">
         <v>671</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="30" t="s">
         <v>672</v>
       </c>
     </row>
@@ -4209,7 +4207,7 @@
       <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>676</v>
       </c>
       <c r="G3" t="s">
@@ -4248,7 +4246,7 @@
       <c r="R3" t="s">
         <v>671</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="30" t="s">
         <v>672</v>
       </c>
     </row>
@@ -4302,7 +4300,7 @@
       <c r="H1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>699</v>
       </c>
     </row>
@@ -4803,51 +4801,58 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" customWidth="1"/>
+    <col min="3" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="J1" s="17" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>74</v>
       </c>
@@ -4858,46 +4863,58 @@
         <v>75</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>107</v>
       </c>
@@ -4908,19 +4925,25 @@
         <v>75</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>520</v>
+      </c>
+      <c r="J5" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -5936,7 +5959,7 @@
     <col min="2" max="2" width="14.1640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="49.83203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="34" customWidth="1"/>
     <col min="6" max="6" width="81.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5947,13 +5970,13 @@
       <c r="B1" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>761</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>762</v>
       </c>
       <c r="F1" s="18" t="s">
@@ -5971,7 +5994,7 @@
       <c r="D2" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>476</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -5989,7 +6012,7 @@
       <c r="D3" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -6006,7 +6029,7 @@
       <c r="D4" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -6023,7 +6046,7 @@
       <c r="D5" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -6040,7 +6063,7 @@
       <c r="D6" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -6057,7 +6080,7 @@
       <c r="D7" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -6074,7 +6097,7 @@
       <c r="D8" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -6091,7 +6114,7 @@
       <c r="D9" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -6108,7 +6131,7 @@
       <c r="D10" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -6125,7 +6148,7 @@
       <c r="D11" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -6142,7 +6165,7 @@
       <c r="D12" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -6159,7 +6182,7 @@
       <c r="D13" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -6177,7 +6200,7 @@
       <c r="D14" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -6195,7 +6218,7 @@
       <c r="D15" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -6213,7 +6236,7 @@
       <c r="D16" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -6231,7 +6254,7 @@
       <c r="D17" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -6249,7 +6272,7 @@
       <c r="D18" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -6267,7 +6290,7 @@
       <c r="D19" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -6285,7 +6308,7 @@
       <c r="D20" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -6303,7 +6326,7 @@
       <c r="D21" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -6321,7 +6344,7 @@
       <c r="D22" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -6339,7 +6362,7 @@
       <c r="D23" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -6357,7 +6380,7 @@
       <c r="D24" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -6375,7 +6398,7 @@
       <c r="D25" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -6393,7 +6416,7 @@
       <c r="D26" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -6411,7 +6434,7 @@
       <c r="D27" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -6429,7 +6452,7 @@
       <c r="D28" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -6447,7 +6470,7 @@
       <c r="D29" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -6465,7 +6488,7 @@
       <c r="D30" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -6483,7 +6506,7 @@
       <c r="D31" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -6501,7 +6524,7 @@
       <c r="D32" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -6519,7 +6542,7 @@
       <c r="D33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -6537,7 +6560,7 @@
       <c r="D34" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -6555,7 +6578,7 @@
       <c r="D35" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -6573,7 +6596,7 @@
       <c r="D36" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -6591,7 +6614,7 @@
       <c r="D37" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -6609,7 +6632,7 @@
       <c r="D38" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F38" s="8" t="s">
@@ -6627,7 +6650,7 @@
       <c r="D39" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -6645,7 +6668,7 @@
       <c r="D40" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F40" s="8" t="s">
@@ -6663,7 +6686,7 @@
       <c r="D41" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -6681,7 +6704,7 @@
       <c r="D42" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F42" s="8" t="s">
@@ -6699,7 +6722,7 @@
       <c r="D43" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F43" s="8" t="s">
@@ -6717,7 +6740,7 @@
       <c r="D44" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F44" s="8" t="s">
@@ -6735,7 +6758,7 @@
       <c r="D45" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F45" s="8" t="s">
@@ -6753,7 +6776,7 @@
       <c r="D46" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F46" s="8" t="s">
@@ -6771,7 +6794,7 @@
       <c r="D47" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F47" s="8" t="s">
@@ -6789,7 +6812,7 @@
       <c r="D48" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F48" s="8" t="s">
@@ -6807,7 +6830,7 @@
       <c r="D49" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="8" t="s">
@@ -6825,7 +6848,7 @@
       <c r="D50" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F50" s="8" t="s">
@@ -6843,7 +6866,7 @@
       <c r="D51" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F51" s="8" t="s">
@@ -6861,7 +6884,7 @@
       <c r="D52" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -6879,7 +6902,7 @@
       <c r="D53" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F53" s="8" t="s">
@@ -6897,7 +6920,7 @@
       <c r="D54" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F54" s="8" t="s">
@@ -6915,7 +6938,7 @@
       <c r="D55" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F55" s="8" t="s">
@@ -6933,7 +6956,7 @@
       <c r="D56" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F56" s="8" t="s">
@@ -6951,7 +6974,7 @@
       <c r="D57" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F57" s="8" t="s">
@@ -6969,7 +6992,7 @@
       <c r="D58" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F58" s="8" t="s">
@@ -6987,7 +7010,7 @@
       <c r="D59" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -7005,7 +7028,7 @@
       <c r="D60" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F60" s="8" t="s">
@@ -7023,7 +7046,7 @@
       <c r="D61" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F61" s="8" t="s">
@@ -7041,7 +7064,7 @@
       <c r="D62" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F62" s="8" t="s">
@@ -7059,7 +7082,7 @@
       <c r="D63" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E63" s="35" t="s">
+      <c r="E63" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F63" s="8" t="s">
@@ -7077,7 +7100,7 @@
       <c r="D64" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F64" s="8" t="s">
@@ -7095,7 +7118,7 @@
       <c r="D65" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F65" s="8" t="s">
@@ -7113,7 +7136,7 @@
       <c r="D66" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E66" s="35" t="s">
+      <c r="E66" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F66" s="8" t="s">
@@ -7131,7 +7154,7 @@
       <c r="D67" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E67" s="35" t="s">
+      <c r="E67" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F67" s="8" t="s">
@@ -7149,7 +7172,7 @@
       <c r="D68" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E68" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F68" s="8" t="s">
@@ -7167,7 +7190,7 @@
       <c r="D69" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F69" s="8" t="s">
@@ -7185,7 +7208,7 @@
       <c r="D70" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E70" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F70" s="8" t="s">
@@ -7203,7 +7226,7 @@
       <c r="D71" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E71" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F71" s="8" t="s">
@@ -7221,7 +7244,7 @@
       <c r="D72" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="E72" s="35" t="s">
+      <c r="E72" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F72" s="8" t="s">
@@ -7239,7 +7262,7 @@
       <c r="D73" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="E73" s="35" t="s">
+      <c r="E73" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F73" s="8" t="s">
@@ -7257,7 +7280,7 @@
       <c r="D74" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F74" s="8" t="s">
@@ -7275,7 +7298,7 @@
       <c r="D75" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E75" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F75" s="8" t="s">
@@ -7293,7 +7316,7 @@
       <c r="D76" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="E76" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F76" s="8" t="s">
@@ -7311,7 +7334,7 @@
       <c r="D77" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="E77" s="35" t="s">
+      <c r="E77" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F77" s="8" t="s">
@@ -7329,7 +7352,7 @@
       <c r="D78" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="E78" s="35" t="s">
+      <c r="E78" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F78" s="8" t="s">
@@ -7347,7 +7370,7 @@
       <c r="D79" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E79" s="35" t="s">
+      <c r="E79" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F79" s="8" t="s">
@@ -7365,7 +7388,7 @@
       <c r="D80" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E80" s="35" t="s">
+      <c r="E80" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F80" s="8" t="s">
@@ -7383,7 +7406,7 @@
       <c r="D81" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E81" s="35" t="s">
+      <c r="E81" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F81" s="8" t="s">
@@ -7401,7 +7424,7 @@
       <c r="D82" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E82" s="35" t="s">
+      <c r="E82" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F82" s="8" t="s">
@@ -7419,7 +7442,7 @@
       <c r="D83" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E83" s="35" t="s">
+      <c r="E83" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F83" s="8" t="s">
@@ -7437,7 +7460,7 @@
       <c r="D84" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E84" s="35" t="s">
+      <c r="E84" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F84" s="8" t="s">
@@ -7455,7 +7478,7 @@
       <c r="D85" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="E85" s="35" t="s">
+      <c r="E85" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F85" s="8" t="s">
@@ -7473,7 +7496,7 @@
       <c r="D86" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E86" s="35" t="s">
+      <c r="E86" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F86" s="8" t="s">
@@ -7491,7 +7514,7 @@
       <c r="D87" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E87" s="35" t="s">
+      <c r="E87" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F87" s="8" t="s">
@@ -7509,7 +7532,7 @@
       <c r="D88" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E88" s="35" t="s">
+      <c r="E88" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F88" s="8" t="s">
@@ -7527,7 +7550,7 @@
       <c r="D89" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E89" s="35" t="s">
+      <c r="E89" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F89" s="8" t="s">
@@ -7545,7 +7568,7 @@
       <c r="D90" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E90" s="35" t="s">
+      <c r="E90" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F90" s="8" t="s">
@@ -7563,7 +7586,7 @@
       <c r="D91" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E91" s="35" t="s">
+      <c r="E91" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F91" s="8" t="s">
@@ -7581,7 +7604,7 @@
       <c r="D92" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E92" s="35" t="s">
+      <c r="E92" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F92" s="8" t="s">
@@ -7599,7 +7622,7 @@
       <c r="D93" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E93" s="35" t="s">
+      <c r="E93" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F93" s="8" t="s">
@@ -7617,7 +7640,7 @@
       <c r="D94" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E94" s="35" t="s">
+      <c r="E94" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F94" s="8" t="s">
@@ -7635,7 +7658,7 @@
       <c r="D95" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="E95" s="35" t="s">
+      <c r="E95" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F95" s="8" t="s">
@@ -7653,7 +7676,7 @@
       <c r="D96" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E96" s="35" t="s">
+      <c r="E96" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F96" s="8" t="s">
@@ -7671,7 +7694,7 @@
       <c r="D97" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E97" s="35" t="s">
+      <c r="E97" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F97" s="8" t="s">
@@ -7689,7 +7712,7 @@
       <c r="D98" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="E98" s="35" t="s">
+      <c r="E98" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F98" s="8" t="s">
@@ -7707,7 +7730,7 @@
       <c r="D99" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E99" s="35" t="s">
+      <c r="E99" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F99" s="8" t="s">
@@ -7725,7 +7748,7 @@
       <c r="D100" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E100" s="35" t="s">
+      <c r="E100" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F100" s="8" t="s">
@@ -7743,7 +7766,7 @@
       <c r="D101" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E101" s="35" t="s">
+      <c r="E101" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F101" s="8" t="s">
@@ -7761,7 +7784,7 @@
       <c r="D102" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="E102" s="35" t="s">
+      <c r="E102" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F102" s="8" t="s">
@@ -7779,7 +7802,7 @@
       <c r="D103" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E103" s="35" t="s">
+      <c r="E103" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F103" s="8" t="s">
@@ -7797,7 +7820,7 @@
       <c r="D104" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E104" s="35" t="s">
+      <c r="E104" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F104" s="8" t="s">
@@ -7815,7 +7838,7 @@
       <c r="D105" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E105" s="35" t="s">
+      <c r="E105" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F105" s="8" t="s">
@@ -7833,7 +7856,7 @@
       <c r="D106" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E106" s="35" t="s">
+      <c r="E106" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F106" s="8" t="s">
@@ -7851,7 +7874,7 @@
       <c r="D107" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E107" s="35" t="s">
+      <c r="E107" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F107" s="8" t="s">
@@ -7869,7 +7892,7 @@
       <c r="D108" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E108" s="35" t="s">
+      <c r="E108" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F108" s="8" t="s">
@@ -7887,7 +7910,7 @@
       <c r="D109" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E109" s="35" t="s">
+      <c r="E109" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F109" s="8" t="s">
@@ -7905,7 +7928,7 @@
       <c r="D110" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E110" s="35" t="s">
+      <c r="E110" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F110" s="8" t="s">
@@ -7923,7 +7946,7 @@
       <c r="D111" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E111" s="35" t="s">
+      <c r="E111" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F111" s="8" t="s">
@@ -7941,7 +7964,7 @@
       <c r="D112" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E112" s="35" t="s">
+      <c r="E112" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F112" s="8" t="s">
@@ -7959,7 +7982,7 @@
       <c r="D113" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="E113" s="35" t="s">
+      <c r="E113" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F113" s="8" t="s">
@@ -7977,7 +8000,7 @@
       <c r="D114" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E114" s="35" t="s">
+      <c r="E114" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F114" s="8" t="s">
@@ -7995,7 +8018,7 @@
       <c r="D115" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E115" s="35" t="s">
+      <c r="E115" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F115" s="8" t="s">
@@ -8013,7 +8036,7 @@
       <c r="D116" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E116" s="35" t="s">
+      <c r="E116" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F116" s="8" t="s">
@@ -8031,7 +8054,7 @@
       <c r="D117" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E117" s="35" t="s">
+      <c r="E117" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F117" s="8" t="s">
@@ -8049,7 +8072,7 @@
       <c r="D118" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E118" s="35" t="s">
+      <c r="E118" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F118" s="8" t="s">
@@ -8067,7 +8090,7 @@
       <c r="D119" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E119" s="35" t="s">
+      <c r="E119" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F119" s="8" t="s">
@@ -8085,7 +8108,7 @@
       <c r="D120" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E120" s="35" t="s">
+      <c r="E120" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F120" s="8" t="s">
@@ -8103,7 +8126,7 @@
       <c r="D121" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E121" s="35" t="s">
+      <c r="E121" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F121" s="8" t="s">
@@ -8121,7 +8144,7 @@
       <c r="D122" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E122" s="35" t="s">
+      <c r="E122" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F122" s="8" t="s">
@@ -8139,7 +8162,7 @@
       <c r="D123" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E123" s="35" t="s">
+      <c r="E123" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F123" s="8" t="s">
@@ -8157,7 +8180,7 @@
       <c r="D124" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="E124" s="35" t="s">
+      <c r="E124" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F124" s="8" t="s">
@@ -8175,7 +8198,7 @@
       <c r="D125" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E125" s="35" t="s">
+      <c r="E125" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F125" s="8" t="s">
@@ -8193,7 +8216,7 @@
       <c r="D126" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E126" s="35" t="s">
+      <c r="E126" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F126" s="8" t="s">
@@ -8211,7 +8234,7 @@
       <c r="D127" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E127" s="35" t="s">
+      <c r="E127" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F127" s="8" t="s">
@@ -8229,7 +8252,7 @@
       <c r="D128" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E128" s="35" t="s">
+      <c r="E128" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F128" s="8" t="s">
@@ -8247,7 +8270,7 @@
       <c r="D129" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E129" s="35" t="s">
+      <c r="E129" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F129" s="8" t="s">
@@ -8265,7 +8288,7 @@
       <c r="D130" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="E130" s="35" t="s">
+      <c r="E130" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F130" s="8" t="s">
@@ -8283,7 +8306,7 @@
       <c r="D131" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="E131" s="35" t="s">
+      <c r="E131" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F131" s="8" t="s">
@@ -8301,7 +8324,7 @@
       <c r="D132" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E132" s="35" t="s">
+      <c r="E132" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F132" s="8" t="s">
@@ -8319,7 +8342,7 @@
       <c r="D133" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E133" s="35" t="s">
+      <c r="E133" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F133" s="8" t="s">
@@ -8411,94 +8434,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>622</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>627</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>610</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>611</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>612</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>614</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>613</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>623</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>627</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>629</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>626</v>
       </c>
     </row>
@@ -8674,23 +8697,23 @@
       <c r="A1" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -8707,109 +8730,109 @@
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>691</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>692</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>693</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
@@ -8876,6 +8899,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B8:E8"/>
@@ -8884,11 +8912,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tests/integration_test_files/group_activities_1.xlsx
+++ b/tests/integration_test_files/group_activities_1.xlsx
@@ -1,43 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B1E2E-D09B-3D48-8836-E3731E4EDEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F88DEE-C4A8-0848-B254-BB477B7305D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55320" yWindow="2340" windowWidth="36000" windowHeight="21260" firstSheet="10" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="52280" yWindow="500" windowWidth="50120" windowHeight="27060" firstSheet="2" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyAmendments" sheetId="18" r:id="rId2"/>
-    <sheet name="studyIdentifiers" sheetId="3" r:id="rId3"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
-    <sheet name="studyDesignSites" sheetId="30" r:id="rId5"/>
-    <sheet name="studyDesignArms" sheetId="15" r:id="rId6"/>
-    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId7"/>
-    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId8"/>
-    <sheet name="dictionaries" sheetId="23" r:id="rId9"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId10"/>
-    <sheet name="studyDesignTiming" sheetId="25" r:id="rId11"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId12"/>
-    <sheet name="studyDesignConditions" sheetId="31" r:id="rId13"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId14"/>
-    <sheet name="studyDesignInterventions" sheetId="27" r:id="rId15"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId16"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId17"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId18"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId19"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId20"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId21"/>
-    <sheet name="documentContent" sheetId="32" r:id="rId22"/>
-    <sheet name="document" sheetId="17" r:id="rId23"/>
-    <sheet name="configuration" sheetId="10" r:id="rId24"/>
-    <sheet name="usefulInfo" sheetId="26" r:id="rId25"/>
+    <sheet name="studyOrganizations" sheetId="3" r:id="rId3"/>
+    <sheet name="studyIdentifiers" sheetId="33" r:id="rId4"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId5"/>
+    <sheet name="studyDesignSites" sheetId="30" r:id="rId6"/>
+    <sheet name="studyDesignArms" sheetId="15" r:id="rId7"/>
+    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId8"/>
+    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId9"/>
+    <sheet name="dictionaries" sheetId="23" r:id="rId10"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId11"/>
+    <sheet name="studyDesignTiming" sheetId="25" r:id="rId12"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId13"/>
+    <sheet name="studyDesignConditions" sheetId="31" r:id="rId14"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId15"/>
+    <sheet name="studyDesignInterventions" sheetId="27" r:id="rId16"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId17"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId18"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId19"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId20"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId21"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId22"/>
+    <sheet name="documentContent" sheetId="32" r:id="rId23"/>
+    <sheet name="document" sheetId="17" r:id="rId24"/>
+    <sheet name="configuration" sheetId="10" r:id="rId25"/>
+    <sheet name="usefulInfo" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="777">
   <si>
     <t>Screening</t>
   </si>
@@ -101,18 +102,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>organisationIdentifierScheme</t>
-  </si>
-  <si>
-    <t>organisationIdentifier</t>
-  </si>
-  <si>
-    <t>organisationName</t>
-  </si>
-  <si>
-    <t>organisationType</t>
-  </si>
-  <si>
     <t>studyIdentifier</t>
   </si>
   <si>
@@ -173,9 +162,6 @@
     <t>AP1234</t>
   </si>
   <si>
-    <t>organisationAddress</t>
-  </si>
-  <si>
     <t>BC:Age, BC:Sex, BC:Race, BC:Body Weight</t>
   </si>
   <si>
@@ -2189,9 +2175,6 @@
     <t>Main Site</t>
   </si>
   <si>
-    <t>Site Org</t>
-  </si>
-  <si>
     <t>SITE_2</t>
   </si>
   <si>
@@ -2204,9 +2187,6 @@
     <t>SITE_ORG_2</t>
   </si>
   <si>
-    <t>Clinical Trials Org</t>
-  </si>
-  <si>
     <t>SITE_3</t>
   </si>
   <si>
@@ -2391,6 +2371,27 @@
   </si>
   <si>
     <t>ICE Text</t>
+  </si>
+  <si>
+    <t>ACME</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>Site Org UK</t>
+  </si>
+  <si>
+    <t>Site Org France</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>FRA</t>
   </si>
 </sst>
 </file>
@@ -2608,10 +2609,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2953,10 +2954,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2964,7 +2965,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2980,7 +2981,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2988,68 +2989,68 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>12</v>
@@ -3057,79 +3058,79 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C17" t="s">
+        <v>454</v>
+      </c>
+      <c r="D17" t="s">
+        <v>455</v>
+      </c>
+      <c r="E17" t="s">
         <v>460</v>
-      </c>
-      <c r="C17" t="s">
-        <v>459</v>
-      </c>
-      <c r="D17" t="s">
-        <v>460</v>
-      </c>
-      <c r="E17" t="s">
-        <v>465</v>
       </c>
       <c r="F17" s="22">
         <v>44911</v>
       </c>
       <c r="G17" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C18" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D18" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E18" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F18" s="22">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -3139,6 +3140,146 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB40753-8F7D-3941-9F21-F336F33F75CC}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F3" t="s">
+        <v>494</v>
+      </c>
+      <c r="G3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" t="s">
+        <v>493</v>
+      </c>
+      <c r="F4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>737</v>
+      </c>
+      <c r="H6">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3160,80 +3301,80 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3242,83 +3383,83 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="25" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3327,7 +3468,7 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3345,33 +3486,33 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3382,7 +3523,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3393,10 +3534,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -3411,10 +3552,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
@@ -3436,7 +3577,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3451,10 +3592,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -3469,10 +3610,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>2</v>
@@ -3480,12 +3621,12 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -3498,7 +3639,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3506,10 +3647,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
@@ -3521,7 +3662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0B1F19-81B2-DE4D-B058-6D33A4EF2886}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -3540,196 +3681,196 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C4" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="H5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B6" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C6" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D6" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E6" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F6" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G6" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H6" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G7" t="s">
+        <v>579</v>
+      </c>
+      <c r="H7" t="s">
+        <v>553</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="E7" t="s">
-        <v>537</v>
-      </c>
-      <c r="F7" t="s">
-        <v>534</v>
-      </c>
-      <c r="G7" t="s">
-        <v>584</v>
-      </c>
-      <c r="H7" t="s">
-        <v>558</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -3737,7 +3878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3755,13 +3896,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3777,65 +3918,65 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B4" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B5" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C5" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3843,24 +3984,24 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B9" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C9" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +4009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B66E51-0DD3-3746-8869-93EFDF6EEF7D}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -3887,80 +4028,80 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>728</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>729</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -3969,7 +4110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3987,53 +4128,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4041,7 +4182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86117B3B-3975-3B4E-8ED4-B6979F031A31}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -4075,179 +4216,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>650</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="P1" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="R1" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>655</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>652</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E2" t="s">
+        <v>744</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="G2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H2" t="s">
+        <v>745</v>
+      </c>
+      <c r="I2" t="s">
+        <v>660</v>
+      </c>
+      <c r="J2" t="s">
         <v>661</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2" t="s">
         <v>662</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>663</v>
       </c>
-      <c r="E2" t="s">
-        <v>751</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>676</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
+        <v>669</v>
+      </c>
+      <c r="N2" t="s">
         <v>664</v>
       </c>
-      <c r="H2" t="s">
-        <v>752</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
+        <v>670</v>
+      </c>
+      <c r="P2" t="s">
         <v>665</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R2" t="s">
         <v>666</v>
       </c>
-      <c r="K2" t="s">
+      <c r="S2" s="30" t="s">
         <v>667</v>
-      </c>
-      <c r="L2" t="s">
-        <v>668</v>
-      </c>
-      <c r="M2" t="s">
-        <v>674</v>
-      </c>
-      <c r="N2" t="s">
-        <v>669</v>
-      </c>
-      <c r="O2" t="s">
-        <v>675</v>
-      </c>
-      <c r="P2" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>127</v>
-      </c>
-      <c r="R2" t="s">
-        <v>671</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="G3" t="s">
+        <v>659</v>
+      </c>
+      <c r="H3" t="s">
+        <v>746</v>
+      </c>
+      <c r="I3" t="s">
+        <v>660</v>
+      </c>
+      <c r="J3" t="s">
+        <v>674</v>
+      </c>
+      <c r="K3" t="s">
+        <v>675</v>
+      </c>
+      <c r="L3" t="s">
+        <v>676</v>
+      </c>
+      <c r="M3" t="s">
+        <v>669</v>
+      </c>
+      <c r="N3" t="s">
+        <v>664</v>
+      </c>
+      <c r="O3" t="s">
+        <v>670</v>
+      </c>
+      <c r="P3" t="s">
         <v>677</v>
       </c>
-      <c r="C3" t="s">
-        <v>678</v>
-      </c>
-      <c r="D3" t="s">
-        <v>663</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>676</v>
-      </c>
-      <c r="G3" t="s">
-        <v>664</v>
-      </c>
-      <c r="H3" t="s">
-        <v>753</v>
-      </c>
-      <c r="I3" t="s">
-        <v>665</v>
-      </c>
-      <c r="J3" t="s">
-        <v>679</v>
-      </c>
-      <c r="K3" t="s">
-        <v>680</v>
-      </c>
-      <c r="L3" t="s">
-        <v>681</v>
-      </c>
-      <c r="M3" t="s">
-        <v>674</v>
-      </c>
-      <c r="N3" t="s">
-        <v>669</v>
-      </c>
-      <c r="O3" t="s">
-        <v>675</v>
-      </c>
-      <c r="P3" t="s">
-        <v>682</v>
-      </c>
       <c r="Q3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R3" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -4255,7 +4396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4277,39 +4418,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>47</v>
-      </c>
       <c r="I1" s="32" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4318,38 +4459,38 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B3" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G3" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B4" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G4" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4357,7 +4498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -4383,105 +4524,105 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>513</v>
-      </c>
       <c r="K1" s="17" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4492,18 +4633,18 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4799,11 +4940,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4822,66 +4963,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4893,10 +5034,10 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4908,123 +5049,43 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="J5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>529</v>
-      </c>
-      <c r="C3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+        <v>769</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5051,22 +5112,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G1" s="9"/>
     </row>
@@ -5075,17 +5136,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="G2" s="9"/>
     </row>
@@ -5094,17 +5155,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G3" s="9"/>
     </row>
@@ -5113,19 +5174,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>481</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>486</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -5134,17 +5195,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -5154,6 +5215,86 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -5175,175 +5316,175 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>586</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -5352,7 +5493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -5371,104 +5512,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5477,7 +5618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5388B46-7AE5-4C42-A1A5-4BAAA12E98C6}">
   <dimension ref="A1:D86"/>
   <sheetViews>
@@ -5493,55 +5634,55 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -5945,7 +6086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:F139"/>
   <sheetViews>
@@ -5965,40 +6106,40 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="B2" s="10" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6007,2376 +6148,2376 @@
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="9" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="9" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="9" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="9" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="9" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="9" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="9" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="9" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="9" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="9" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="9" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="9" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="9" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="9" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="9" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="9" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="9" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="9" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="9" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="9" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="9" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="9" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="9" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="9" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="9" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="10" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="10" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="9" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="9" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="9" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="9" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="9" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="9" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="9" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E112" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="9" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="9" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E120" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E121" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E122" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E123" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E124" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E125" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="9" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E126" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E130" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E131" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E132" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E133" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B134" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B135" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B136" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B138" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B139" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -8385,7 +8526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -8400,18 +8541,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -8419,7 +8560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CCACBD-9050-2546-A791-CCDEA21B15F7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -8435,94 +8576,94 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>610</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>611</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>612</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>620</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
+        <v>616</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>621</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -8546,131 +8687,171 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>13</v>
+        <v>698</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>14</v>
+        <v>484</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>15</v>
+        <v>380</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>16</v>
+        <v>451</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>37</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>770</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E4" t="s">
         <v>630</v>
-      </c>
-      <c r="B4" t="s">
-        <v>633</v>
-      </c>
-      <c r="C4" t="s">
-        <v>636</v>
-      </c>
-      <c r="D4" t="s">
-        <v>635</v>
-      </c>
-      <c r="E4" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B5" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C5" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E5" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B6" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C6" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>633</v>
       </c>
       <c r="E6" t="s">
-        <v>642</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3">
+        <v>234567891</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -8679,6 +8860,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4DDE78-D8F8-3345-B8BB-3CE9CE9E5CE4}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -8695,10 +8943,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -8706,10 +8954,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -8717,43 +8965,43 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+        <v>23</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+        <v>24</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -8761,10 +9009,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -8772,10 +9020,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -8783,10 +9031,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -8794,10 +9042,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -8805,10 +9053,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -8816,10 +9064,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -8827,7 +9075,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -8836,10 +9084,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
@@ -8848,41 +9096,41 @@
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -8899,11 +9147,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B8:E8"/>
@@ -8912,128 +9155,98 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E2E6C-EC56-2C43-9AA4-39E342213E19}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="50" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="17.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="17.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>385</v>
+        <v>695</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>456</v>
+        <v>696</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="C2" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="B3" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>701</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3">
-        <v>123456789</v>
-      </c>
-      <c r="F2" t="s">
-        <v>596</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F3"/>
-      <c r="G3" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3">
-        <v>234567891</v>
-      </c>
-      <c r="F4" t="s">
-        <v>597</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>717</v>
+      <c r="E4" s="3" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -9042,7 +9255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FA707-26D8-0546-9A99-D418F7F4E088}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -9062,62 +9275,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -9128,7 +9341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1D5BD-3A57-0140-9167-DAF5A3D4D9EF}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -9146,30 +9359,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -9177,13 +9390,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9191,27 +9404,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -9219,7 +9432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED1B92D-F8EC-D24D-81E6-6B85449D22F0}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -9240,268 +9453,128 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="8" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>506</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="8" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB40753-8F7D-3941-9F21-F336F33F75CC}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F2" t="s">
-        <v>499</v>
-      </c>
-      <c r="G2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F3" t="s">
-        <v>499</v>
-      </c>
-      <c r="G3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>606</v>
-      </c>
-      <c r="B4" t="s">
-        <v>607</v>
-      </c>
-      <c r="C4" t="s">
-        <v>608</v>
-      </c>
-      <c r="D4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E4" t="s">
-        <v>498</v>
-      </c>
-      <c r="F4" t="s">
-        <v>499</v>
-      </c>
-      <c r="G4" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>741</v>
-      </c>
-      <c r="B5" t="s">
-        <v>743</v>
-      </c>
-      <c r="C5" t="s">
-        <v>742</v>
-      </c>
-      <c r="D5" t="s">
-        <v>609</v>
-      </c>
-      <c r="E5" t="s">
-        <v>542</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>744</v>
-      </c>
-      <c r="H6">
-        <v>1234</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/group_activities_1.xlsx
+++ b/tests/integration_test_files/group_activities_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F88DEE-C4A8-0848-B254-BB477B7305D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A8997-E527-3F44-8BB0-F37F6E671F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52280" yWindow="500" windowWidth="50120" windowHeight="27060" firstSheet="2" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51620" yWindow="500" windowWidth="50120" windowHeight="27060" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="778">
   <si>
     <t>Screening</t>
   </si>
@@ -147,9 +147,6 @@
     <t>interventionModel</t>
   </si>
   <si>
-    <t>trialTypes</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -2392,6 +2389,12 @@
   </si>
   <si>
     <t>FRA</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
   </si>
 </sst>
 </file>
@@ -2938,7 +2941,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:A14"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2954,10 +2957,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2981,7 +2984,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2989,68 +2992,68 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>12</v>
@@ -3058,79 +3061,79 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>452</v>
-      </c>
       <c r="G16" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C17" t="s">
         <v>453</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>454</v>
       </c>
-      <c r="D17" t="s">
-        <v>455</v>
-      </c>
       <c r="E17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F17" s="22">
         <v>44911</v>
       </c>
       <c r="G17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C18" t="s">
         <v>457</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>458</v>
       </c>
-      <c r="D18" t="s">
-        <v>459</v>
-      </c>
       <c r="E18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F18" s="22">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -3159,116 +3162,116 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>488</v>
-      </c>
       <c r="H1" s="17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" t="s">
         <v>489</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>490</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>491</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>492</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>493</v>
       </c>
-      <c r="F2" t="s">
-        <v>494</v>
-      </c>
       <c r="G2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F3" t="s">
         <v>493</v>
       </c>
-      <c r="F3" t="s">
-        <v>494</v>
-      </c>
       <c r="G3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B4" t="s">
         <v>601</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>602</v>
       </c>
-      <c r="C4" t="s">
-        <v>603</v>
-      </c>
       <c r="D4" t="s">
+        <v>491</v>
+      </c>
+      <c r="E4" t="s">
         <v>492</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>493</v>
       </c>
-      <c r="F4" t="s">
-        <v>494</v>
-      </c>
       <c r="G4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B5" t="s">
+        <v>735</v>
+      </c>
+      <c r="C5" t="s">
         <v>734</v>
       </c>
-      <c r="B5" t="s">
-        <v>736</v>
-      </c>
-      <c r="C5" t="s">
-        <v>735</v>
-      </c>
       <c r="D5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H6">
         <v>1234</v>
@@ -3301,80 +3304,80 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="C1" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="C2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3383,83 +3386,83 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="C5" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3468,7 +3471,7 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3493,26 +3496,26 @@
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3523,7 +3526,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3534,10 +3537,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -3552,10 +3555,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
@@ -3577,7 +3580,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3592,10 +3595,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -3610,10 +3613,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>2</v>
@@ -3621,12 +3624,12 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -3639,7 +3642,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3647,10 +3650,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>761</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>762</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
@@ -3681,196 +3684,196 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>547</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" t="s">
         <v>549</v>
-      </c>
-      <c r="B2" t="s">
-        <v>550</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F2" t="s">
+        <v>527</v>
+      </c>
+      <c r="G2" t="s">
         <v>551</v>
       </c>
-      <c r="E2" t="s">
-        <v>527</v>
-      </c>
-      <c r="F2" t="s">
-        <v>528</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>552</v>
-      </c>
-      <c r="H2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" t="s">
         <v>554</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>555</v>
       </c>
-      <c r="C3" t="s">
-        <v>556</v>
-      </c>
       <c r="D3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F3" t="s">
         <v>528</v>
-      </c>
-      <c r="F3" t="s">
-        <v>529</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B4" t="s">
         <v>558</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D4" t="s">
         <v>559</v>
       </c>
-      <c r="C4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F4" t="s">
+        <v>528</v>
+      </c>
+      <c r="G4" t="s">
         <v>560</v>
-      </c>
-      <c r="E4" t="s">
-        <v>529</v>
-      </c>
-      <c r="F4" t="s">
-        <v>529</v>
-      </c>
-      <c r="G4" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" t="s">
         <v>562</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D5" t="s">
         <v>563</v>
       </c>
-      <c r="C5" t="s">
-        <v>535</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G5" t="s">
         <v>564</v>
       </c>
-      <c r="E5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F5" t="s">
-        <v>529</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>552</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="H5" t="s">
-        <v>553</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D6" t="s">
+        <v>563</v>
+      </c>
+      <c r="E6" t="s">
+        <v>570</v>
+      </c>
+      <c r="F6" t="s">
+        <v>528</v>
+      </c>
+      <c r="G6" t="s">
         <v>577</v>
       </c>
-      <c r="C6" t="s">
-        <v>570</v>
-      </c>
-      <c r="D6" t="s">
-        <v>564</v>
-      </c>
-      <c r="E6" t="s">
-        <v>571</v>
-      </c>
-      <c r="F6" t="s">
-        <v>529</v>
-      </c>
-      <c r="G6" t="s">
-        <v>578</v>
-      </c>
       <c r="H6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G7" t="s">
+        <v>578</v>
+      </c>
+      <c r="H7" t="s">
+        <v>552</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="C7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" t="s">
-        <v>564</v>
-      </c>
-      <c r="E7" t="s">
-        <v>532</v>
-      </c>
-      <c r="F7" t="s">
-        <v>529</v>
-      </c>
-      <c r="G7" t="s">
-        <v>579</v>
-      </c>
-      <c r="H7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -3896,13 +3899,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3918,65 +3921,65 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B3" t="s">
         <v>586</v>
       </c>
-      <c r="B3" t="s">
-        <v>587</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3984,24 +3987,24 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -4028,80 +4031,80 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>711</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>719</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -4128,53 +4131,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>723</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4216,179 +4219,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>650</v>
-      </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>646</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>647</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>654</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2" t="s">
         <v>656</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>657</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>743</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="G2" t="s">
         <v>658</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>744</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>671</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>659</v>
       </c>
-      <c r="H2" t="s">
-        <v>745</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>660</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>661</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>662</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>668</v>
+      </c>
+      <c r="N2" t="s">
         <v>663</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>669</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>664</v>
       </c>
-      <c r="O2" t="s">
-        <v>670</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" t="s">
         <v>665</v>
       </c>
-      <c r="Q2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="30" t="s">
         <v>666</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" t="s">
         <v>672</v>
       </c>
-      <c r="C3" t="s">
-        <v>673</v>
-      </c>
       <c r="D3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G3" t="s">
+        <v>658</v>
+      </c>
+      <c r="H3" t="s">
+        <v>745</v>
+      </c>
+      <c r="I3" t="s">
         <v>659</v>
       </c>
-      <c r="H3" t="s">
-        <v>746</v>
-      </c>
-      <c r="I3" t="s">
-        <v>660</v>
-      </c>
       <c r="J3" t="s">
+        <v>673</v>
+      </c>
+      <c r="K3" t="s">
         <v>674</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>675</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>668</v>
+      </c>
+      <c r="N3" t="s">
+        <v>663</v>
+      </c>
+      <c r="O3" t="s">
+        <v>669</v>
+      </c>
+      <c r="P3" t="s">
         <v>676</v>
       </c>
-      <c r="M3" t="s">
-        <v>669</v>
-      </c>
-      <c r="N3" t="s">
-        <v>664</v>
-      </c>
-      <c r="O3" t="s">
-        <v>670</v>
-      </c>
-      <c r="P3" t="s">
-        <v>677</v>
-      </c>
       <c r="Q3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R3" t="s">
+        <v>665</v>
+      </c>
+      <c r="S3" s="30" t="s">
         <v>666</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -4418,39 +4421,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>680</v>
-      </c>
       <c r="G1" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4459,38 +4462,38 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" t="s">
         <v>682</v>
       </c>
-      <c r="B3" t="s">
-        <v>683</v>
-      </c>
       <c r="G3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4524,105 +4527,105 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="F1" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="K1" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>599</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4633,18 +4636,18 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4963,66 +4966,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>767</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="J2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5034,10 +5037,10 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5049,42 +5052,42 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -5112,22 +5115,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>468</v>
-      </c>
       <c r="F1" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G1" s="9"/>
     </row>
@@ -5136,17 +5139,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G2" s="9"/>
     </row>
@@ -5155,17 +5158,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G3" s="9"/>
     </row>
@@ -5174,19 +5177,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>476</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -5195,17 +5198,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -5234,53 +5237,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E3" t="s">
         <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5316,175 +5319,175 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>521</v>
-      </c>
       <c r="G1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>125</v>
-      </c>
       <c r="I1" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -5512,104 +5515,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5634,55 +5637,55 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -6106,40 +6109,40 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="18" t="s">
         <v>755</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="B2" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6148,2376 +6151,2376 @@
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>449</v>
-      </c>
       <c r="E11" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E112" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E120" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E121" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E122" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E123" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E124" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E125" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E126" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E130" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E131" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E132" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E133" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B134" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B135" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B136" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B138" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B139" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -8541,18 +8544,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -8576,94 +8579,94 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>622</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>622</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -8705,22 +8708,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>698</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -8737,121 +8740,121 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>770</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E5" t="s">
         <v>629</v>
-      </c>
-      <c r="C5" t="s">
-        <v>629</v>
-      </c>
-      <c r="D5" t="s">
-        <v>632</v>
-      </c>
-      <c r="E5" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3">
         <v>123456789</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3">
         <v>234567891</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -8878,7 +8881,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8891,34 +8894,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -8928,10 +8931,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8943,10 +8946,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -8954,10 +8957,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -8968,7 +8971,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -8979,7 +8982,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -8990,7 +8993,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -9001,7 +9004,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -9009,10 +9012,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>28</v>
+        <v>777</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -9023,7 +9026,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -9031,10 +9034,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>685</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>686</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -9042,10 +9045,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -9053,10 +9056,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -9064,10 +9067,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -9075,78 +9078,117 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="D19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B8:E8"/>
@@ -9155,11 +9197,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9170,8 +9207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E2E6C-EC56-2C43-9AA4-39E342213E19}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9183,70 +9220,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>695</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>697</v>
-      </c>
       <c r="D1" s="17" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>702</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>705</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>710</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -9275,22 +9312,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>518</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -9298,19 +9335,19 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -9324,13 +9361,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -9359,16 +9396,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9376,13 +9413,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -9390,13 +9427,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9404,13 +9441,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -9418,13 +9455,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -9453,128 +9490,128 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="F1" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>484</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>502</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>597</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/group_activities_1.xlsx
+++ b/tests/integration_test_files/group_activities_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A8997-E527-3F44-8BB0-F37F6E671F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6713252D-94F1-BE40-BA4A-621949F594AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51620" yWindow="500" windowWidth="50120" windowHeight="27060" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51620" yWindow="500" windowWidth="50120" windowHeight="27060" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="782">
   <si>
     <t>Screening</t>
   </si>
@@ -2395,6 +2395,18 @@
   </si>
   <si>
     <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>AMEND_1</t>
+  </si>
+  <si>
+    <t>AMEND_2</t>
+  </si>
+  <si>
+    <t>AMEND_3</t>
+  </si>
+  <si>
+    <t>AMEND_4</t>
   </si>
 </sst>
 </file>
@@ -5097,122 +5109,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" style="6" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8933,7 +8969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/tests/integration_test_files/group_activities_1.xlsx
+++ b/tests/integration_test_files/group_activities_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6713252D-94F1-BE40-BA4A-621949F594AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF0CCDB-25B5-EA40-AB24-C2F9C5859513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51620" yWindow="500" windowWidth="50120" windowHeight="27060" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="12" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2301,12 +2301,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>NCI_1</t>
   </si>
   <si>
@@ -2407,13 +2401,19 @@
   </si>
   <si>
     <t>AMEND_4</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2472,6 +2472,13 @@
       <color rgb="FF444444"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2534,7 +2541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2634,6 +2641,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3625,7 +3635,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>583</v>
@@ -3636,12 +3646,12 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -3654,7 +3664,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3662,10 +3672,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
@@ -3955,35 +3965,35 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B5" t="s">
         <v>584</v>
       </c>
       <c r="C5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3991,7 +4001,7 @@
         <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3999,13 +4009,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4517,7 +4527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -4589,8 +4599,8 @@
       <c r="D2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>746</v>
+      <c r="E2" s="9" t="s">
+        <v>780</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
@@ -4619,8 +4629,8 @@
       <c r="D3" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>747</v>
+      <c r="E3" s="40" t="s">
+        <v>781</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>600</v>
@@ -4987,7 +4997,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>65</v>
@@ -5005,7 +5015,7 @@
         <v>66</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -5037,7 +5047,7 @@
         <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5052,7 +5062,7 @@
         <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5067,7 +5077,7 @@
         <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5099,7 +5109,7 @@
         <v>514</v>
       </c>
       <c r="J5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +5121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -5157,7 +5167,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -5181,7 +5191,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -5203,7 +5213,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -5227,7 +5237,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -5681,7 +5691,7 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>724</v>
@@ -5689,7 +5699,7 @@
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>725</v>
@@ -5697,7 +5707,7 @@
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>726</v>
@@ -5705,7 +5715,7 @@
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>727</v>
@@ -5713,7 +5723,7 @@
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>378</v>
@@ -5721,7 +5731,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -6151,16 +6161,16 @@
         <v>419</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>184</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6178,7 +6188,7 @@
         <v>470</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6196,7 +6206,7 @@
         <v>121</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6213,7 +6223,7 @@
         <v>121</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6230,7 +6240,7 @@
         <v>121</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6247,7 +6257,7 @@
         <v>121</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6264,7 +6274,7 @@
         <v>121</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6281,7 +6291,7 @@
         <v>121</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6298,7 +6308,7 @@
         <v>121</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6315,7 +6325,7 @@
         <v>121</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6332,7 +6342,7 @@
         <v>121</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6349,7 +6359,7 @@
         <v>121</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6366,7 +6376,7 @@
         <v>121</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6384,7 +6394,7 @@
         <v>121</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6402,7 +6412,7 @@
         <v>121</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6420,7 +6430,7 @@
         <v>121</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6438,7 +6448,7 @@
         <v>121</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6456,7 +6466,7 @@
         <v>121</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6474,7 +6484,7 @@
         <v>121</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6492,7 +6502,7 @@
         <v>121</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6510,7 +6520,7 @@
         <v>121</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6528,7 +6538,7 @@
         <v>121</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6546,7 +6556,7 @@
         <v>121</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6564,7 +6574,7 @@
         <v>121</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6582,7 +6592,7 @@
         <v>121</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6600,7 +6610,7 @@
         <v>121</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6618,7 +6628,7 @@
         <v>121</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6636,7 +6646,7 @@
         <v>121</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6654,7 +6664,7 @@
         <v>121</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6672,7 +6682,7 @@
         <v>121</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6690,7 +6700,7 @@
         <v>121</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6708,7 +6718,7 @@
         <v>121</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6726,7 +6736,7 @@
         <v>121</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6744,7 +6754,7 @@
         <v>121</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6762,7 +6772,7 @@
         <v>121</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6780,7 +6790,7 @@
         <v>121</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6798,7 +6808,7 @@
         <v>121</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6816,7 +6826,7 @@
         <v>121</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6834,7 +6844,7 @@
         <v>121</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6852,7 +6862,7 @@
         <v>121</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6870,7 +6880,7 @@
         <v>121</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6888,7 +6898,7 @@
         <v>121</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6906,7 +6916,7 @@
         <v>121</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6924,7 +6934,7 @@
         <v>121</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6942,7 +6952,7 @@
         <v>121</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6960,7 +6970,7 @@
         <v>121</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6978,7 +6988,7 @@
         <v>121</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6996,7 +7006,7 @@
         <v>121</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7014,7 +7024,7 @@
         <v>121</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7032,7 +7042,7 @@
         <v>121</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7050,7 +7060,7 @@
         <v>121</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7068,7 +7078,7 @@
         <v>121</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7086,7 +7096,7 @@
         <v>121</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7104,7 +7114,7 @@
         <v>121</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7122,7 +7132,7 @@
         <v>121</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7140,7 +7150,7 @@
         <v>121</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7158,7 +7168,7 @@
         <v>121</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7176,7 +7186,7 @@
         <v>121</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7194,7 +7204,7 @@
         <v>121</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7212,7 +7222,7 @@
         <v>121</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7230,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7248,7 +7258,7 @@
         <v>121</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7266,7 +7276,7 @@
         <v>121</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7284,7 +7294,7 @@
         <v>121</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7302,7 +7312,7 @@
         <v>121</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7320,7 +7330,7 @@
         <v>121</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7338,7 +7348,7 @@
         <v>121</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7356,7 +7366,7 @@
         <v>121</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7374,7 +7384,7 @@
         <v>121</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7392,7 +7402,7 @@
         <v>121</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7410,7 +7420,7 @@
         <v>121</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7428,7 +7438,7 @@
         <v>121</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7446,7 +7456,7 @@
         <v>121</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7464,7 +7474,7 @@
         <v>121</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7482,7 +7492,7 @@
         <v>121</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7500,7 +7510,7 @@
         <v>121</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7518,7 +7528,7 @@
         <v>121</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7536,7 +7546,7 @@
         <v>121</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7554,7 +7564,7 @@
         <v>121</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7572,7 +7582,7 @@
         <v>121</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7590,7 +7600,7 @@
         <v>121</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7608,7 +7618,7 @@
         <v>121</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7626,7 +7636,7 @@
         <v>121</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7644,7 +7654,7 @@
         <v>121</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7662,7 +7672,7 @@
         <v>121</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7680,7 +7690,7 @@
         <v>121</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7698,7 +7708,7 @@
         <v>121</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7716,7 +7726,7 @@
         <v>121</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7734,7 +7744,7 @@
         <v>121</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7752,7 +7762,7 @@
         <v>121</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7770,13 +7780,13 @@
         <v>121</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="10" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>121</v>
@@ -7788,13 +7798,13 @@
         <v>121</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>121</v>
@@ -7806,7 +7816,7 @@
         <v>121</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7824,7 +7834,7 @@
         <v>121</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7842,7 +7852,7 @@
         <v>121</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7860,7 +7870,7 @@
         <v>121</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7878,7 +7888,7 @@
         <v>121</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7896,7 +7906,7 @@
         <v>121</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7914,7 +7924,7 @@
         <v>121</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7932,7 +7942,7 @@
         <v>121</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7950,7 +7960,7 @@
         <v>121</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7968,7 +7978,7 @@
         <v>121</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7986,7 +7996,7 @@
         <v>121</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8004,7 +8014,7 @@
         <v>121</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8022,7 +8032,7 @@
         <v>121</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8040,7 +8050,7 @@
         <v>121</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8058,7 +8068,7 @@
         <v>121</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8076,7 +8086,7 @@
         <v>121</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8094,7 +8104,7 @@
         <v>121</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8112,7 +8122,7 @@
         <v>121</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8130,7 +8140,7 @@
         <v>121</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8148,7 +8158,7 @@
         <v>121</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8166,7 +8176,7 @@
         <v>121</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8184,7 +8194,7 @@
         <v>121</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8202,7 +8212,7 @@
         <v>121</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8220,7 +8230,7 @@
         <v>121</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8238,7 +8248,7 @@
         <v>121</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8256,7 +8266,7 @@
         <v>121</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8274,7 +8284,7 @@
         <v>121</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8292,7 +8302,7 @@
         <v>121</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8310,7 +8320,7 @@
         <v>121</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8328,7 +8338,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8346,7 +8356,7 @@
         <v>121</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8364,7 +8374,7 @@
         <v>121</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8382,7 +8392,7 @@
         <v>121</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8400,7 +8410,7 @@
         <v>121</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8418,7 +8428,7 @@
         <v>121</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8436,7 +8446,7 @@
         <v>121</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8454,7 +8464,7 @@
         <v>121</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8472,7 +8482,7 @@
         <v>121</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8490,7 +8500,7 @@
         <v>121</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8508,7 +8518,7 @@
         <v>121</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8526,7 +8536,7 @@
         <v>121</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -8790,7 +8800,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -8864,7 +8874,7 @@
         <v>699</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>104</v>
@@ -8884,7 +8894,7 @@
         <v>706</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>104</v>
@@ -8917,7 +8927,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8933,7 +8943,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9048,7 +9058,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>95</v>
@@ -9145,7 +9155,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -9265,10 +9275,10 @@
         <v>696</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9285,7 +9295,7 @@
         <v>699</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9302,7 +9312,7 @@
         <v>699</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9319,7 +9329,7 @@
         <v>706</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/group_activities_1.xlsx
+++ b/tests/integration_test_files/group_activities_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF0CCDB-25B5-EA40-AB24-C2F9C5859513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B22007F-B198-1A48-936B-C0E4DB4108B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="12" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -375,12 +375,6 @@
     <t>IC Event Description Number 2</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
   <si>
@@ -2407,6 +2401,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -2627,6 +2627,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2641,9 +2644,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2979,10 +2979,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3091,71 +3091,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>454</v>
-      </c>
       <c r="C17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F17" s="22">
         <v>44911</v>
       </c>
       <c r="G17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" t="s">
+        <v>455</v>
+      </c>
+      <c r="D18" t="s">
+        <v>456</v>
+      </c>
+      <c r="E18" t="s">
         <v>458</v>
-      </c>
-      <c r="C18" t="s">
-        <v>457</v>
-      </c>
-      <c r="D18" t="s">
-        <v>458</v>
-      </c>
-      <c r="E18" t="s">
-        <v>460</v>
       </c>
       <c r="F18" s="22">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -3184,116 +3184,116 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>53</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2" t="s">
         <v>488</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>489</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>490</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>491</v>
       </c>
-      <c r="E2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F2" t="s">
-        <v>493</v>
-      </c>
       <c r="G2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" t="s">
         <v>600</v>
       </c>
-      <c r="B4" t="s">
-        <v>601</v>
-      </c>
-      <c r="C4" t="s">
-        <v>602</v>
-      </c>
       <c r="D4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E4" t="s">
+        <v>490</v>
+      </c>
+      <c r="F4" t="s">
         <v>491</v>
       </c>
-      <c r="E4" t="s">
-        <v>492</v>
-      </c>
-      <c r="F4" t="s">
-        <v>493</v>
-      </c>
       <c r="G4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B5" t="s">
         <v>733</v>
       </c>
-      <c r="B5" t="s">
-        <v>735</v>
-      </c>
       <c r="C5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H6">
         <v>1234</v>
@@ -3326,42 +3326,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>36</v>
@@ -3370,36 +3370,36 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3426,65 +3426,65 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3493,7 +3493,7 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3518,26 +3518,26 @@
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3548,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3559,7 +3559,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>32</v>
@@ -3577,10 +3577,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3617,10 +3617,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -3635,10 +3635,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>2</v>
@@ -3646,12 +3646,12 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3672,10 +3672,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
@@ -3706,196 +3706,196 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>545</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>546</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H2" t="s">
         <v>550</v>
-      </c>
-      <c r="E2" t="s">
-        <v>526</v>
-      </c>
-      <c r="F2" t="s">
-        <v>527</v>
-      </c>
-      <c r="G2" t="s">
-        <v>551</v>
-      </c>
-      <c r="H2" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C3" t="s">
         <v>553</v>
       </c>
-      <c r="B3" t="s">
-        <v>554</v>
-      </c>
-      <c r="C3" t="s">
-        <v>555</v>
-      </c>
       <c r="D3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" t="s">
         <v>557</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F4" t="s">
+        <v>526</v>
+      </c>
+      <c r="G4" t="s">
         <v>558</v>
-      </c>
-      <c r="C4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D4" t="s">
-        <v>559</v>
-      </c>
-      <c r="E4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F4" t="s">
-        <v>528</v>
-      </c>
-      <c r="G4" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D5" t="s">
         <v>561</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F5" t="s">
+        <v>526</v>
+      </c>
+      <c r="G5" t="s">
         <v>562</v>
       </c>
-      <c r="C5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
+        <v>550</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="E5" t="s">
-        <v>529</v>
-      </c>
-      <c r="F5" t="s">
-        <v>528</v>
-      </c>
-      <c r="G5" t="s">
-        <v>564</v>
-      </c>
-      <c r="H5" t="s">
-        <v>552</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E6" t="s">
+        <v>568</v>
+      </c>
+      <c r="F6" t="s">
+        <v>526</v>
+      </c>
+      <c r="G6" t="s">
+        <v>575</v>
+      </c>
+      <c r="H6" t="s">
+        <v>550</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="E6" t="s">
-        <v>570</v>
-      </c>
-      <c r="F6" t="s">
-        <v>528</v>
-      </c>
-      <c r="G6" t="s">
-        <v>577</v>
-      </c>
-      <c r="H6" t="s">
-        <v>552</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -3921,13 +3921,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3943,65 +3943,65 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4009,24 +4009,24 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -4053,80 +4053,80 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -4153,16 +4153,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>37</v>
@@ -4173,13 +4173,13 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>38</v>
@@ -4190,13 +4190,13 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>39</v>
@@ -4241,61 +4241,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="O1" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>645</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>646</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>647</v>
-      </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>652</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -4303,58 +4303,58 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D2" t="s">
         <v>655</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="G2" t="s">
         <v>656</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>742</v>
+      </c>
+      <c r="I2" t="s">
         <v>657</v>
       </c>
-      <c r="E2" t="s">
-        <v>743</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>670</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>658</v>
       </c>
-      <c r="H2" t="s">
-        <v>744</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>659</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>660</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>666</v>
+      </c>
+      <c r="N2" t="s">
         <v>661</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>667</v>
+      </c>
+      <c r="P2" t="s">
         <v>662</v>
       </c>
-      <c r="M2" t="s">
-        <v>668</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" t="s">
         <v>663</v>
       </c>
-      <c r="O2" t="s">
-        <v>669</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="S2" s="30" t="s">
         <v>664</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" t="s">
-        <v>665</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4362,58 +4362,58 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J3" t="s">
+        <v>671</v>
+      </c>
+      <c r="K3" t="s">
+        <v>672</v>
+      </c>
+      <c r="L3" t="s">
         <v>673</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>666</v>
+      </c>
+      <c r="N3" t="s">
+        <v>661</v>
+      </c>
+      <c r="O3" t="s">
+        <v>667</v>
+      </c>
+      <c r="P3" t="s">
         <v>674</v>
       </c>
-      <c r="L3" t="s">
-        <v>675</v>
-      </c>
-      <c r="M3" t="s">
-        <v>668</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" t="s">
         <v>663</v>
       </c>
-      <c r="O3" t="s">
-        <v>669</v>
-      </c>
-      <c r="P3" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" t="s">
-        <v>665</v>
-      </c>
       <c r="S3" s="30" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -4443,39 +4443,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4487,35 +4487,35 @@
         <v>42</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B4" t="s">
         <v>681</v>
       </c>
-      <c r="B4" t="s">
-        <v>683</v>
-      </c>
       <c r="G4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4527,7 +4527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -4549,43 +4549,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>45</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>46</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -4593,21 +4593,21 @@
         <v>59</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
         <v>61</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
@@ -4623,23 +4623,23 @@
         <v>60</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>781</v>
+        <v>729</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>779</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
@@ -4661,7 +4661,7 @@
         <v>63</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
@@ -4988,7 +4988,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>64</v>
@@ -4997,7 +4997,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>65</v>
@@ -5015,7 +5015,7 @@
         <v>66</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -5029,7 +5029,7 @@
         <v>69</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>70</v>
@@ -5047,7 +5047,7 @@
         <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5062,7 +5062,7 @@
         <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5077,7 +5077,7 @@
         <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5091,10 +5091,10 @@
         <v>69</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>103</v>
@@ -5106,10 +5106,10 @@
         <v>62</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -5137,37 +5137,37 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>467</v>
-      </c>
       <c r="I1" s="24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -5175,85 +5175,85 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>469</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>471</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>475</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -5283,53 +5283,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" t="s">
         <v>522</v>
       </c>
-      <c r="D3" t="s">
-        <v>524</v>
-      </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5365,175 +5365,175 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -5561,104 +5561,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5683,55 +5683,55 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -6155,40 +6155,40 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>749</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>751</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>752</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="B2" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6197,2376 +6197,2376 @@
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="10" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E112" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E120" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E121" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E122" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E123" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E124" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E125" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E126" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E130" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E131" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E132" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E133" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B134" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B135" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B136" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B138" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B139" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -8624,95 +8624,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>616</v>
-      </c>
-      <c r="B1" s="38"/>
+      <c r="A1" s="39" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="B10" s="39"/>
+      <c r="A10" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -8738,8 +8738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8754,22 +8754,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -8786,10 +8786,10 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>781</v>
       </c>
       <c r="F2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -8800,67 +8800,67 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>780</v>
       </c>
       <c r="F3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C4" t="s">
+        <v>622</v>
+      </c>
+      <c r="D4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E4" t="s">
         <v>627</v>
-      </c>
-      <c r="C4" t="s">
-        <v>624</v>
-      </c>
-      <c r="D4" t="s">
-        <v>630</v>
-      </c>
-      <c r="E4" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -8871,16 +8871,16 @@
         <v>123456789</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>104</v>
+        <v>780</v>
       </c>
       <c r="F7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -8891,16 +8891,16 @@
         <v>234567891</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>104</v>
+        <v>780</v>
       </c>
       <c r="F8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -8927,7 +8927,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8943,31 +8943,31 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -8992,179 +8992,179 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+        <v>166</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+        <v>167</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="B7" s="35" t="s">
+        <v>773</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>685</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+        <v>682</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>684</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>686</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>687</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+        <v>686</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>685</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+        <v>105</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+        <v>106</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+        <v>772</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>21</v>
@@ -9184,16 +9184,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -9201,16 +9201,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -9266,70 +9266,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>696</v>
-      </c>
       <c r="D1" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>702</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>705</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>709</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -9358,22 +9358,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -9381,19 +9381,19 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -9407,13 +9407,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -9442,13 +9442,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>35</v>
@@ -9459,13 +9459,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -9473,13 +9473,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9487,13 +9487,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -9501,13 +9501,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -9536,128 +9536,128 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>596</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>741</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
